--- a/Austin_Suicides/Austin_suicide11.xlsx
+++ b/Austin_Suicides/Austin_suicide11.xlsx
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -315,10 +315,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -380,7 +380,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -722,11 +722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391721728"/>
-        <c:axId val="391723648"/>
+        <c:axId val="54724480"/>
+        <c:axId val="54726016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="391721728"/>
+        <c:axId val="54724480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391723648"/>
+        <c:crossAx val="54726016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391723648"/>
+        <c:axId val="54726016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391721728"/>
+        <c:crossAx val="54724480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,11 +974,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="402831616"/>
-        <c:axId val="402848000"/>
+        <c:axId val="65869696"/>
+        <c:axId val="281514368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402831616"/>
+        <c:axId val="65869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402848000"/>
+        <c:crossAx val="281514368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -995,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402848000"/>
+        <c:axId val="281514368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,14 +1006,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402831616"/>
+        <c:crossAx val="65869696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1074,7 +1073,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1209,7 +1207,6 @@
         <c:idx val="7"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1222,7 +1219,6 @@
         <c:idx val="8"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1245,7 +1241,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1255,7 +1250,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1369,7 +1363,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1381,7 +1374,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1484,7 +1476,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1544,7 +1535,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1640,11 +1630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="515756032"/>
-        <c:axId val="514703744"/>
+        <c:axId val="473642880"/>
+        <c:axId val="473644416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="515756032"/>
+        <c:axId val="473642880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514703744"/>
+        <c:crossAx val="473644416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514703744"/>
+        <c:axId val="473644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,14 +1662,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515756032"/>
+        <c:crossAx val="473642880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6347,7 +6336,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -6365,7 +6354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A5:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6520,7 +6509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A33:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6639,7 +6628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A5:C12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6736,7 +6725,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
   <location ref="A9:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6801,7 +6790,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A8:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -17648,7 +17637,7 @@
   </sheetPr>
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -17675,38 +17664,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -17852,22 +17841,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -17956,24 +17945,24 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18046,67 +18035,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="O3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -18170,44 +18159,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
